--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.789624</v>
+        <v>22.3363875</v>
       </c>
       <c r="N2">
-        <v>71.57924800000001</v>
+        <v>44.672775</v>
       </c>
       <c r="O2">
-        <v>0.258139457682779</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P2">
-        <v>0.1993778771086309</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q2">
-        <v>4.712437686892001</v>
+        <v>17.30307243616875</v>
       </c>
       <c r="R2">
-        <v>18.849750747568</v>
+        <v>69.21228974467499</v>
       </c>
       <c r="S2">
-        <v>0.002937452624526185</v>
+        <v>0.006964004959097874</v>
       </c>
       <c r="T2">
-        <v>0.00178515097416639</v>
+        <v>0.004048181922946221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4335790718803266</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P3">
-        <v>0.5023219368682956</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q3">
-        <v>7.9151570895735</v>
+        <v>46.5673307101695</v>
       </c>
       <c r="R3">
-        <v>47.490942537441</v>
+        <v>279.403984261017</v>
       </c>
       <c r="S3">
-        <v>0.004933836903770091</v>
+        <v>0.01874205423307912</v>
       </c>
       <c r="T3">
-        <v>0.004497592751762564</v>
+        <v>0.01634215776500331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1309775</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N4">
-        <v>42.261955</v>
+        <v>0.373519</v>
       </c>
       <c r="O4">
-        <v>0.1524111868891667</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P4">
-        <v>0.1177170633360173</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q4">
-        <v>2.78232637291375</v>
+        <v>0.09644988942049999</v>
       </c>
       <c r="R4">
-        <v>11.129305491655</v>
+        <v>0.5786993365229999</v>
       </c>
       <c r="S4">
-        <v>0.001734336334915917</v>
+        <v>3.881839544431374E-05</v>
       </c>
       <c r="T4">
-        <v>0.001053992214872474</v>
+        <v>3.384774873906869E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.40334366666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N5">
-        <v>64.210031</v>
+        <v>25.989309</v>
       </c>
       <c r="O5">
-        <v>0.1543756795743782</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P5">
-        <v>0.178851553034748</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q5">
-        <v>2.818188962261833</v>
+        <v>10.06641956298825</v>
       </c>
       <c r="R5">
-        <v>16.909133773571</v>
+        <v>40.26567825195299</v>
       </c>
       <c r="S5">
-        <v>0.001756690934425182</v>
+        <v>0.00405145363724387</v>
       </c>
       <c r="T5">
-        <v>0.001601366353987179</v>
+        <v>0.002355113396999929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2072186666666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N6">
-        <v>0.621656</v>
+        <v>0.364659</v>
       </c>
       <c r="O6">
-        <v>0.001494603973349423</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P6">
-        <v>0.001731569652308208</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q6">
-        <v>0.02728458544933333</v>
+        <v>0.09416206465049999</v>
       </c>
       <c r="R6">
-        <v>0.163707512696</v>
+        <v>0.564972387903</v>
       </c>
       <c r="S6">
-        <v>1.700758343398122E-05</v>
+        <v>3.789760966464358E-05</v>
       </c>
       <c r="T6">
-        <v>1.550379257960884E-05</v>
+        <v>3.30448684201876E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.068161333333333</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>18.204484</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.5244270828216987</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.6189532915869436</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.789624</v>
+        <v>0.047492</v>
       </c>
       <c r="N7">
-        <v>71.57924800000001</v>
+        <v>0.142476</v>
       </c>
       <c r="O7">
-        <v>0.258139457682779</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P7">
-        <v>0.1993778771086309</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q7">
-        <v>217.1772124913387</v>
+        <v>0.036790081482</v>
       </c>
       <c r="R7">
-        <v>1303.063274948032</v>
+        <v>0.220740488892</v>
       </c>
       <c r="S7">
-        <v>0.1353753227537551</v>
+        <v>1.480698360544991E-05</v>
       </c>
       <c r="T7">
-        <v>0.1234055933060042</v>
+        <v>1.291096798114032E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.113367</v>
+        <v>22.3363875</v>
       </c>
       <c r="N8">
-        <v>180.340101</v>
+        <v>44.672775</v>
       </c>
       <c r="O8">
-        <v>0.4335790718803266</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P8">
-        <v>0.5023219368682956</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q8">
-        <v>364.777609245876</v>
+        <v>135.54080295385</v>
       </c>
       <c r="R8">
-        <v>3282.998483212884</v>
+        <v>813.2448177231</v>
       </c>
       <c r="S8">
-        <v>0.2273806078387393</v>
+        <v>0.05455139989807032</v>
       </c>
       <c r="T8">
-        <v>0.3109138162609604</v>
+        <v>0.04756616176377315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1309775</v>
+        <v>60.113367</v>
       </c>
       <c r="N9">
-        <v>42.261955</v>
+        <v>180.340101</v>
       </c>
       <c r="O9">
-        <v>0.1524111868891667</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P9">
-        <v>0.1177170633360173</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q9">
-        <v>128.2261806010367</v>
+        <v>364.777609245876</v>
       </c>
       <c r="R9">
-        <v>769.35708360622</v>
+        <v>3282.998483212884</v>
       </c>
       <c r="S9">
-        <v>0.07992855412967841</v>
+        <v>0.146812832757153</v>
       </c>
       <c r="T9">
-        <v>0.07286136382777661</v>
+        <v>0.1920204513075623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.40334366666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N10">
-        <v>64.210031</v>
+        <v>0.373519</v>
       </c>
       <c r="O10">
-        <v>0.1543756795743782</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P10">
-        <v>0.178851553034748</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q10">
-        <v>129.8789424421116</v>
+        <v>0.7555245176884444</v>
       </c>
       <c r="R10">
-        <v>1168.910481979004</v>
+        <v>6.799720659196</v>
       </c>
       <c r="S10">
-        <v>0.08095878729780846</v>
+        <v>0.0003040775854873179</v>
       </c>
       <c r="T10">
-        <v>0.1107007574562941</v>
+        <v>0.000397711249767734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,134 +1107,134 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2072186666666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N11">
-        <v>0.621656</v>
+        <v>25.989309</v>
       </c>
       <c r="O11">
-        <v>0.001494603973349423</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P11">
-        <v>0.001731569652308208</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q11">
-        <v>1.257436300611555</v>
+        <v>78.853659976926</v>
       </c>
       <c r="R11">
-        <v>11.316926705504</v>
+        <v>473.121959861556</v>
       </c>
       <c r="S11">
-        <v>0.0007838108017173579</v>
+        <v>0.03173640295086924</v>
       </c>
       <c r="T11">
-        <v>0.001071760735908225</v>
+        <v>0.02767259647565403</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.05668599999999999</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>0.170058</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.0048989590065004</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.005781979805672736</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>35.789624</v>
+        <v>0.121553</v>
       </c>
       <c r="N12">
-        <v>71.57924800000001</v>
+        <v>0.364659</v>
       </c>
       <c r="O12">
-        <v>0.258139457682779</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P12">
-        <v>0.1993778771086309</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q12">
-        <v>2.028770626064</v>
+        <v>0.7376032145506667</v>
       </c>
       <c r="R12">
-        <v>12.172623756384</v>
+        <v>6.638428930956001</v>
       </c>
       <c r="S12">
-        <v>0.001264614621148179</v>
+        <v>0.0002968647598816121</v>
       </c>
       <c r="T12">
-        <v>0.001152798859140004</v>
+        <v>0.0003882774012273864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05668599999999999</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H13">
-        <v>0.170058</v>
+        <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.0048989590065004</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.005781979805672736</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.113367</v>
+        <v>0.047492</v>
       </c>
       <c r="N13">
-        <v>180.340101</v>
+        <v>0.142476</v>
       </c>
       <c r="O13">
-        <v>0.4335790718803266</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P13">
-        <v>0.5023219368682956</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q13">
-        <v>3.407586321762</v>
+        <v>0.2881891180426667</v>
       </c>
       <c r="R13">
-        <v>30.668276895858</v>
+        <v>2.593702062384</v>
       </c>
       <c r="S13">
-        <v>0.00212408609921821</v>
+        <v>0.0001159880971781652</v>
       </c>
       <c r="T13">
-        <v>0.002904415294918901</v>
+        <v>0.0001517039508616902</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1309775</v>
+        <v>22.3363875</v>
       </c>
       <c r="N14">
-        <v>42.261955</v>
+        <v>44.672775</v>
       </c>
       <c r="O14">
-        <v>0.1524111868891667</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P14">
-        <v>0.1177170633360173</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q14">
-        <v>1.197830590565</v>
+        <v>16.545023839925</v>
       </c>
       <c r="R14">
-        <v>7.186983543389999</v>
+        <v>99.27014303955001</v>
       </c>
       <c r="S14">
-        <v>0.0007466561567020986</v>
+        <v>0.00665891150225932</v>
       </c>
       <c r="T14">
-        <v>0.0006806376829919504</v>
+        <v>0.005806246260938221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.40334366666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N15">
-        <v>64.210031</v>
+        <v>180.340101</v>
       </c>
       <c r="O15">
-        <v>0.1543756795743782</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P15">
-        <v>0.178851553034748</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q15">
-        <v>1.213269939088667</v>
+        <v>44.52721327981801</v>
       </c>
       <c r="R15">
-        <v>10.919429451798</v>
+        <v>400.744919518362</v>
       </c>
       <c r="S15">
-        <v>0.0007562801258355199</v>
+        <v>0.01792096376174687</v>
       </c>
       <c r="T15">
-        <v>0.001034116067860119</v>
+        <v>0.02343931034345798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2072186666666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N16">
-        <v>0.621656</v>
+        <v>0.373519</v>
       </c>
       <c r="O16">
-        <v>0.001494603973349423</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P16">
-        <v>0.001731569652308208</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q16">
-        <v>0.01174639733866666</v>
+        <v>0.0922244142308889</v>
       </c>
       <c r="R16">
-        <v>0.105717576048</v>
+        <v>0.830019728078</v>
       </c>
       <c r="S16">
-        <v>7.32200359639144E-06</v>
+        <v>3.711775931257757E-05</v>
       </c>
       <c r="T16">
-        <v>1.001190076176182E-05</v>
+        <v>4.85473153870424E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.1696935</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>10.339387</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.4467790377283911</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.351539632578504</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,152 +1491,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.789624</v>
+        <v>12.9946545</v>
       </c>
       <c r="N17">
-        <v>71.57924800000001</v>
+        <v>25.989309</v>
       </c>
       <c r="O17">
-        <v>0.258139457682779</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P17">
-        <v>0.1993778771086309</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q17">
-        <v>185.021386560244</v>
+        <v>9.625409144342999</v>
       </c>
       <c r="R17">
-        <v>740.0855462409761</v>
+        <v>57.752454866058</v>
       </c>
       <c r="S17">
-        <v>0.1153312985032407</v>
+        <v>0.003873959220932025</v>
       </c>
       <c r="T17">
-        <v>0.07008922566305022</v>
+        <v>0.0033779036159186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.1696935</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>10.339387</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.4467790377283911</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.351539632578504</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>60.113367</v>
+        <v>0.121553</v>
       </c>
       <c r="N18">
-        <v>180.340101</v>
+        <v>0.364659</v>
       </c>
       <c r="O18">
-        <v>0.4335790718803266</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P18">
-        <v>0.5023219368682956</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q18">
-        <v>310.7676826430146</v>
+        <v>0.09003681919533334</v>
       </c>
       <c r="R18">
-        <v>1864.606095858087</v>
+        <v>0.810331372758</v>
       </c>
       <c r="S18">
-        <v>0.1937140405138613</v>
+        <v>3.623731321074758E-05</v>
       </c>
       <c r="T18">
-        <v>0.1765860691228031</v>
+        <v>4.73957562579775E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.1696935</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>10.339387</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.4467790377283911</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.351539632578504</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.1309775</v>
+        <v>0.047492</v>
       </c>
       <c r="N19">
-        <v>42.261955</v>
+        <v>0.142476</v>
       </c>
       <c r="O19">
-        <v>0.1524111868891667</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P19">
-        <v>0.1177170633360173</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q19">
-        <v>109.2406770303963</v>
+        <v>0.03517830590133333</v>
       </c>
       <c r="R19">
-        <v>436.962708121585</v>
+        <v>0.316604753112</v>
       </c>
       <c r="S19">
-        <v>0.06809412341738386</v>
+        <v>1.415828880410047E-05</v>
       </c>
       <c r="T19">
-        <v>0.04138221319336399</v>
+        <v>1.851800659962212E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.40334366666667</v>
+        <v>22.3363875</v>
       </c>
       <c r="N20">
-        <v>64.210031</v>
+        <v>44.672775</v>
       </c>
       <c r="O20">
-        <v>0.1543756795743782</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P20">
-        <v>0.178851553034748</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q20">
-        <v>110.6487266318328</v>
+        <v>205.6214793262875</v>
       </c>
       <c r="R20">
-        <v>663.892359790997</v>
+        <v>822.4859173051501</v>
       </c>
       <c r="S20">
-        <v>0.06897181756890713</v>
+        <v>0.08275692117731029</v>
       </c>
       <c r="T20">
-        <v>0.06287340923993012</v>
+        <v>0.04810666768279715</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,246 +1739,246 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2072186666666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N21">
-        <v>0.621656</v>
+        <v>180.340101</v>
       </c>
       <c r="O21">
-        <v>0.001494603973349423</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P21">
-        <v>0.001731569652308208</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q21">
-        <v>1.071256994145333</v>
+        <v>553.3839995309911</v>
       </c>
       <c r="R21">
-        <v>6.427541964872</v>
+        <v>3320.303997185946</v>
       </c>
       <c r="S21">
-        <v>0.0006677577249980852</v>
+        <v>0.2227216542747445</v>
       </c>
       <c r="T21">
-        <v>0.0006087153593565154</v>
+        <v>0.194202426616414</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1448183333333334</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>0.434455</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.01251559606233833</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.01477148994151142</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>35.789624</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N22">
-        <v>71.57924800000001</v>
+        <v>0.373519</v>
       </c>
       <c r="O22">
-        <v>0.258139457682779</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P22">
-        <v>0.1993778771086309</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q22">
-        <v>5.182993698306668</v>
+        <v>1.146164591095667</v>
       </c>
       <c r="R22">
-        <v>31.09796218984</v>
+        <v>6.876987546574001</v>
       </c>
       <c r="S22">
-        <v>0.003230769180108741</v>
+        <v>0.0004612993400899132</v>
       </c>
       <c r="T22">
-        <v>0.002945108306270041</v>
+        <v>0.0004022305398805136</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1448183333333334</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>0.434455</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.01251559606233833</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.01477148994151142</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.113367</v>
+        <v>12.9946545</v>
       </c>
       <c r="N23">
-        <v>180.340101</v>
+        <v>25.989309</v>
       </c>
       <c r="O23">
-        <v>0.4335790718803266</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P23">
-        <v>0.5023219368682956</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q23">
-        <v>8.705517619995002</v>
+        <v>119.6245400749785</v>
       </c>
       <c r="R23">
-        <v>78.349658579955</v>
+        <v>478.498160299914</v>
       </c>
       <c r="S23">
-        <v>0.005426500524737725</v>
+        <v>0.04814554717869576</v>
       </c>
       <c r="T23">
-        <v>0.007420043437850563</v>
+        <v>0.02798704695127019</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1448183333333334</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>0.434455</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.01251559606233833</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.01477148994151142</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>21.1309775</v>
+        <v>0.121553</v>
       </c>
       <c r="N24">
-        <v>42.261955</v>
+        <v>0.364659</v>
       </c>
       <c r="O24">
-        <v>0.1524111868891667</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P24">
-        <v>0.1177170633360173</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q24">
-        <v>3.060152943254167</v>
+        <v>1.118977170169</v>
       </c>
       <c r="R24">
-        <v>18.360917659525</v>
+        <v>6.713863021014001</v>
       </c>
       <c r="S24">
-        <v>0.001907516850486366</v>
+        <v>0.000450357160031612</v>
       </c>
       <c r="T24">
-        <v>0.001738856417012242</v>
+        <v>0.0003926894922140191</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1448183333333334</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>0.434455</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.01251559606233833</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.01477148994151142</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.40334366666667</v>
+        <v>0.047492</v>
       </c>
       <c r="N25">
-        <v>64.210031</v>
+        <v>0.142476</v>
       </c>
       <c r="O25">
-        <v>0.1543756795743782</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P25">
-        <v>0.178851553034748</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q25">
-        <v>3.099596557567223</v>
+        <v>0.4371958221160001</v>
       </c>
       <c r="R25">
-        <v>27.896369018105</v>
+        <v>2.623174932696</v>
       </c>
       <c r="S25">
-        <v>0.001932103647401892</v>
+        <v>0.000175959147402543</v>
       </c>
       <c r="T25">
-        <v>0.002641903916676476</v>
+        <v>0.0001534277999245448</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H26">
+        <v>26.070387</v>
+      </c>
+      <c r="I26">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J26">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>22.3363875</v>
+      </c>
+      <c r="N26">
+        <v>44.672775</v>
+      </c>
+      <c r="O26">
+        <v>0.2333075346730891</v>
+      </c>
+      <c r="P26">
+        <v>0.1773553735433322</v>
+      </c>
+      <c r="Q26">
+        <v>194.1060887689875</v>
+      </c>
+      <c r="R26">
+        <v>1164.636532613925</v>
+      </c>
+      <c r="S26">
+        <v>0.07812229705244345</v>
+      </c>
+      <c r="T26">
+        <v>0.06811883518841669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H27">
+        <v>26.070387</v>
+      </c>
+      <c r="I27">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J27">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>60.113367</v>
+      </c>
+      <c r="N27">
+        <v>180.340101</v>
+      </c>
+      <c r="O27">
+        <v>0.627894795237978</v>
+      </c>
+      <c r="P27">
+        <v>0.715968192656428</v>
+      </c>
+      <c r="Q27">
+        <v>522.3929138543431</v>
+      </c>
+      <c r="R27">
+        <v>4701.536224689087</v>
+      </c>
+      <c r="S27">
+        <v>0.2102486050439692</v>
+      </c>
+      <c r="T27">
+        <v>0.2749898034738478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H28">
+        <v>26.070387</v>
+      </c>
+      <c r="I28">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J28">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.1245063333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.373519</v>
+      </c>
+      <c r="O28">
+        <v>0.001300490765625635</v>
+      </c>
+      <c r="P28">
+        <v>0.001482907694239543</v>
+      </c>
+      <c r="Q28">
+        <v>1.081976097983667</v>
+      </c>
+      <c r="R28">
+        <v>9.737784881852999</v>
+      </c>
+      <c r="S28">
+        <v>0.0004354652585417946</v>
+      </c>
+      <c r="T28">
+        <v>0.0005695567199651737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H29">
+        <v>26.070387</v>
+      </c>
+      <c r="I29">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J29">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.9946545</v>
+      </c>
+      <c r="N29">
+        <v>25.989309</v>
+      </c>
+      <c r="O29">
+        <v>0.1357314742736964</v>
+      </c>
+      <c r="P29">
+        <v>0.103180149561519</v>
+      </c>
+      <c r="Q29">
+        <v>112.9252239154305</v>
+      </c>
+      <c r="R29">
+        <v>677.551343492583</v>
+      </c>
+      <c r="S29">
+        <v>0.04544925892527925</v>
+      </c>
+      <c r="T29">
+        <v>0.03962953849255692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H30">
+        <v>26.070387</v>
+      </c>
+      <c r="I30">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J30">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.121553</v>
+      </c>
+      <c r="N30">
+        <v>0.364659</v>
+      </c>
+      <c r="O30">
+        <v>0.001269642674408205</v>
+      </c>
+      <c r="P30">
+        <v>0.00144773261031888</v>
+      </c>
+      <c r="Q30">
+        <v>1.056311250337</v>
+      </c>
+      <c r="R30">
+        <v>9.506801253033</v>
+      </c>
+      <c r="S30">
+        <v>0.0004251358718421078</v>
+      </c>
+      <c r="T30">
+        <v>0.0005560466373752882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.047492</v>
+      </c>
+      <c r="N31">
+        <v>0.142476</v>
+      </c>
+      <c r="O31">
+        <v>0.000496062375202541</v>
+      </c>
+      <c r="P31">
+        <v>0.0005656439341625811</v>
+      </c>
+      <c r="Q31">
+        <v>0.412711606468</v>
+      </c>
+      <c r="R31">
+        <v>3.714404458212</v>
+      </c>
+      <c r="S31">
+        <v>0.0001661049322149629</v>
+      </c>
+      <c r="T31">
+        <v>0.000217253106893513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>22.3363875</v>
+      </c>
+      <c r="N32">
+        <v>44.672775</v>
+      </c>
+      <c r="O32">
+        <v>0.2333075346730891</v>
+      </c>
+      <c r="P32">
+        <v>0.1773553735433322</v>
+      </c>
+      <c r="Q32">
+        <v>10.5696753560125</v>
+      </c>
+      <c r="R32">
+        <v>63.418052136075</v>
+      </c>
+      <c r="S32">
+        <v>0.004254000083907861</v>
+      </c>
+      <c r="T32">
+        <v>0.003709280724460814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>60.113367</v>
+      </c>
+      <c r="N33">
+        <v>180.340101</v>
+      </c>
+      <c r="O33">
+        <v>0.627894795237978</v>
+      </c>
+      <c r="P33">
+        <v>0.715968192656428</v>
+      </c>
+      <c r="Q33">
+        <v>28.445905755657</v>
+      </c>
+      <c r="R33">
+        <v>256.013151800913</v>
+      </c>
+      <c r="S33">
+        <v>0.01144868516728518</v>
+      </c>
+      <c r="T33">
+        <v>0.0149740431501427</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1245063333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.373519</v>
+      </c>
+      <c r="O34">
+        <v>0.001300490765625635</v>
+      </c>
+      <c r="P34">
+        <v>0.001482907694239543</v>
+      </c>
+      <c r="Q34">
+        <v>0.05891693646077778</v>
+      </c>
+      <c r="R34">
+        <v>0.530252428147</v>
+      </c>
+      <c r="S34">
+        <v>2.37124267497177E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.1014120500011E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.9946545</v>
+      </c>
+      <c r="N35">
+        <v>25.989309</v>
+      </c>
+      <c r="O35">
+        <v>0.1357314742736964</v>
+      </c>
+      <c r="P35">
+        <v>0.103180149561519</v>
+      </c>
+      <c r="Q35">
+        <v>6.1491268195695</v>
+      </c>
+      <c r="R35">
+        <v>36.894760917417</v>
+      </c>
+      <c r="S35">
+        <v>0.002474852360676212</v>
+      </c>
+      <c r="T35">
+        <v>0.002157950629119322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.434455</v>
-      </c>
-      <c r="I26">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J26">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.2072186666666667</v>
-      </c>
-      <c r="N26">
-        <v>0.621656</v>
-      </c>
-      <c r="O26">
-        <v>0.001494603973349423</v>
-      </c>
-      <c r="P26">
-        <v>0.001731569652308208</v>
-      </c>
-      <c r="Q26">
-        <v>0.03000906194222223</v>
-      </c>
-      <c r="R26">
-        <v>0.27008155748</v>
-      </c>
-      <c r="S26">
-        <v>1.870585960360726E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.557786370209713E-05</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.121553</v>
+      </c>
+      <c r="N36">
+        <v>0.364659</v>
+      </c>
+      <c r="O36">
+        <v>0.001269642674408205</v>
+      </c>
+      <c r="P36">
+        <v>0.00144773261031888</v>
+      </c>
+      <c r="Q36">
+        <v>0.05751940632966667</v>
+      </c>
+      <c r="R36">
+        <v>0.517674656967</v>
+      </c>
+      <c r="S36">
+        <v>2.314995977748202E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.027845482402103E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.047492</v>
+      </c>
+      <c r="N37">
+        <v>0.142476</v>
+      </c>
+      <c r="O37">
+        <v>0.000496062375202541</v>
+      </c>
+      <c r="P37">
+        <v>0.0005656439341625811</v>
+      </c>
+      <c r="Q37">
+        <v>0.02247342019866667</v>
+      </c>
+      <c r="R37">
+        <v>0.202260781788</v>
+      </c>
+      <c r="S37">
+        <v>9.044925997319491E-06</v>
+      </c>
+      <c r="T37">
+        <v>1.183010190207075E-05</v>
       </c>
     </row>
   </sheetData>
